--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science Lessons\BankManagementSystem using Excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073AA3D0-D45B-4D85-B188-9FC76F6DEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D59A1-8E7D-4F46-A127-441FA682E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -75,58 +75,28 @@
     <t>John LLC</t>
   </si>
   <si>
-    <t>2021/09/30</t>
-  </si>
-  <si>
-    <t>17:29:53</t>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Do Not Delete Sample</t>
+  </si>
+  <si>
+    <t>2021/10/01</t>
+  </si>
+  <si>
+    <t>15:31:56</t>
   </si>
   <si>
     <t>Checkings</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>17:30:01</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>17:30:12</t>
-  </si>
-  <si>
-    <t>foodforless</t>
-  </si>
-  <si>
-    <t>17:30:19</t>
-  </si>
-  <si>
-    <t>Gas Station</t>
-  </si>
-  <si>
-    <t>17:30:33</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>17:30:43</t>
-  </si>
-  <si>
-    <t>chipotle</t>
-  </si>
-  <si>
-    <t>17:30:58</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>17:32:05</t>
-  </si>
-  <si>
-    <t>Employee Bonus</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>15:32:01</t>
+  </si>
+  <si>
+    <t>15:32:04</t>
   </si>
 </sst>
 </file>
@@ -152,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,7 +165,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -471,23 +450,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K25" sqref="F23:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="16" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,13 +490,13 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="3"/>
@@ -532,8 +512,11 @@
       <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -547,35 +530,41 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50000.0</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="5">
-        <f>SUM(N2:P2)</f>
-        <v>315028910</v>
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="4">
-        <v>1499</v>
+        <f>Checking!N2</f>
+        <v>100000</v>
       </c>
       <c r="O2" s="4">
-        <v>27300</v>
+        <f>Savings!N2</f>
+        <v>100000</v>
       </c>
       <c r="P2" s="4">
-        <v>315000111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Business!N2</f>
+        <v>100000</v>
+      </c>
+      <c r="Q2" s="6" t="str">
+        <f>IF(H2="Checking", $N$2-I2, IF(H2="Savings", $O$2-I2, IF(H2="Business",$P$2-12,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -588,8 +577,26 @@
       <c r="D3">
         <v>123000456</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -601,6 +608,139 @@
       </c>
       <c r="D4">
         <v>123000456</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="9:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26">
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99000.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="n">
+        <v>90000.0</v>
       </c>
     </row>
   </sheetData>
@@ -610,15 +750,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K11" sqref="F11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="12.5703125" collapsed="true"/>
@@ -647,7 +788,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -666,7 +807,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -681,23 +822,62 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+    </row>
+    <row r="12">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <f>Home!N2</f>
-        <v>1499</v>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -707,15 +887,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4096E47-5665-49FE-8D03-5A6658E6030D}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K7" sqref="F7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="13.5703125" collapsed="true"/>
@@ -744,7 +925,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -763,7 +944,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -778,23 +959,56 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4">
-        <f>Home!O2</f>
-        <v>27300</v>
+      <c r="K8" t="n">
+        <v>99000.0</v>
       </c>
     </row>
   </sheetData>
@@ -804,15 +1018,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
@@ -841,7 +1056,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -860,7 +1075,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Home!A4</f>
         <v>John LLC</v>
@@ -876,23 +1091,62 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="4">
-        <f>Home!P2</f>
-        <v>315000111</v>
+      <c r="I10" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>90000.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>Employee Bonus</t>
+  </si>
+  <si>
+    <t>2021/10/01</t>
+  </si>
+  <si>
+    <t>15:42:58</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>15:43:03</t>
+  </si>
+  <si>
+    <t>15:43:08</t>
   </si>
 </sst>
 </file>
@@ -471,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -603,6 +618,57 @@
         <v>123000456</v>
       </c>
     </row>
+    <row r="5">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -610,7 +676,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -700,6 +766,23 @@
         <v>1499</v>
       </c>
     </row>
+    <row r="3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -707,7 +790,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4096E47-5665-49FE-8D03-5A6658E6030D}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -797,6 +880,23 @@
         <v>27300</v>
       </c>
     </row>
+    <row r="3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -804,7 +904,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -895,6 +995,23 @@
         <v>315000111</v>
       </c>
     </row>
+    <row r="3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science Lessons\BankManagementSystem using Excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D59A1-8E7D-4F46-A127-441FA682E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073AA3D0-D45B-4D85-B188-9FC76F6DEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -75,28 +75,94 @@
     <t>John LLC</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>Do Not Delete Sample</t>
+    <t>2021/09/30</t>
+  </si>
+  <si>
+    <t>17:29:53</t>
+  </si>
+  <si>
+    <t>Checkings</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>17:30:01</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>17:30:12</t>
+  </si>
+  <si>
+    <t>foodforless</t>
+  </si>
+  <si>
+    <t>17:30:19</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>17:30:33</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>17:30:43</t>
+  </si>
+  <si>
+    <t>chipotle</t>
+  </si>
+  <si>
+    <t>17:30:58</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>17:32:05</t>
+  </si>
+  <si>
+    <t>Employee Bonus</t>
   </si>
   <si>
     <t>2021/10/01</t>
   </si>
   <si>
-    <t>15:31:56</t>
-  </si>
-  <si>
-    <t>Checkings</t>
+    <t>15:42:58</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>15:32:01</t>
-  </si>
-  <si>
-    <t>15:32:04</t>
+    <t>15:43:03</t>
+  </si>
+  <si>
+    <t>15:43:08</t>
+  </si>
+  <si>
+    <t>15:54:57</t>
+  </si>
+  <si>
+    <t>15:55:01</t>
+  </si>
+  <si>
+    <t>15:59:15</t>
+  </si>
+  <si>
+    <t>16:01:45</t>
+  </si>
+  <si>
+    <t>16:02:12</t>
+  </si>
+  <si>
+    <t>16:02:17</t>
+  </si>
+  <si>
+    <t>16:02:21</t>
   </si>
 </sst>
 </file>
@@ -122,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,12 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -165,10 +225,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -450,24 +507,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K25" sqref="F23:K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="16" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,13 +546,13 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="3"/>
@@ -512,11 +568,8 @@
       <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -530,41 +583,35 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50000.0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="K2" s="5">
+        <f>SUM(N2:P2)</f>
+        <v>315028910</v>
       </c>
       <c r="N2" s="4">
-        <f>Checking!N2</f>
-        <v>100000</v>
+        <v>1499</v>
       </c>
       <c r="O2" s="4">
-        <f>Savings!N2</f>
-        <v>100000</v>
+        <v>27300</v>
       </c>
       <c r="P2" s="4">
-        <f>Business!N2</f>
-        <v>100000</v>
-      </c>
-      <c r="Q2" s="6" t="str">
-        <f>IF(H2="Checking", $N$2-I2, IF(H2="Savings", $O$2-I2, IF(H2="Business",$P$2-12,"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <v>315000111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -577,26 +624,8 @@
       <c r="D3">
         <v>123000456</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -609,138 +638,196 @@
       <c r="D4">
         <v>123000456</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="I16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="9:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="I25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26">
-      <c r="F26" t="s">
+    </row>
+    <row r="5">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="s">
+      <c r="I5" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I8" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-222.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="I27" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="n">
-        <v>99000.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="s">
+      <c r="I13" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="n">
-        <v>90000.0</v>
+      <c r="I14" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-123.0</v>
       </c>
     </row>
   </sheetData>
@@ -750,16 +837,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="F11:K11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="12.5703125" collapsed="true"/>
@@ -788,7 +874,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -807,7 +893,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -822,62 +908,120 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N2" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I11"/>
-    </row>
-    <row r="12">
-      <c r="F12" t="s">
+        <f>Home!N2</f>
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
+      <c r="I3" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-222.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-123.0</v>
       </c>
     </row>
   </sheetData>
@@ -887,16 +1031,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4096E47-5665-49FE-8D03-5A6658E6030D}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="F7:K7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="13.5703125" collapsed="true"/>
@@ -925,7 +1068,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -944,7 +1087,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -959,56 +1102,60 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>200.0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I7"/>
-    </row>
-    <row r="8">
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
+        <f>Home!O2</f>
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="n">
-        <v>99000.0</v>
+      <c r="I3" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-123.0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,16 +1165,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="9" max="9" style="4" width="20.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
@@ -1056,7 +1202,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1075,7 +1221,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Home!A4</f>
         <v>John LLC</v>
@@ -1091,62 +1237,80 @@
         <v>123000456</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50000.0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N2" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I9"/>
-    </row>
-    <row r="10">
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
+        <f>Home!P2</f>
+        <v>315000111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="n">
-        <v>90000.0</v>
+      <c r="I3" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-123.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science Lessons\BankManagementSystem using Excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073AA3D0-D45B-4D85-B188-9FC76F6DEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DF9BA7-087B-418C-80B6-8D3C5C482FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -78,51 +78,21 @@
     <t>2021/09/30</t>
   </si>
   <si>
-    <t>17:29:53</t>
-  </si>
-  <si>
     <t>Checkings</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
     <t>17:30:01</t>
   </si>
   <si>
     <t>Samsung</t>
   </si>
   <si>
-    <t>17:30:12</t>
-  </si>
-  <si>
-    <t>foodforless</t>
-  </si>
-  <si>
-    <t>17:30:19</t>
-  </si>
-  <si>
-    <t>Gas Station</t>
-  </si>
-  <si>
-    <t>17:30:33</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
     <t>17:30:43</t>
   </si>
   <si>
     <t>chipotle</t>
   </si>
   <si>
-    <t>17:30:58</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>17:32:05</t>
   </si>
   <si>
@@ -163,6 +133,12 @@
   </si>
   <si>
     <t>16:02:21</t>
+  </si>
+  <si>
+    <t>16:32:37</t>
+  </si>
+  <si>
+    <t>test123</t>
   </si>
 </sst>
 </file>
@@ -507,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,16 +562,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="n">
-        <v>50000.0</v>
+      <c r="I2">
+        <v>50000</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K2" s="5">
         <f>SUM(N2:P2)</f>
@@ -639,195 +615,215 @@
         <v>123000456</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123.0</v>
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="n">
-        <v>123.0</v>
+      <c r="I6">
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="n">
-        <v>123.0</v>
+      <c r="I7">
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="n">
-        <v>222.0</v>
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>222</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-222.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>-222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>123.0</v>
+      <c r="I9">
+        <v>123</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="n">
-        <v>123.0</v>
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="n">
-        <v>123.0</v>
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" t="n">
-        <v>123.0</v>
+      <c r="I12">
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="n">
         <v>123.0</v>
       </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-123.0</v>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1376.0</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +833,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -911,117 +907,136 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.0</v>
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4">
-        <f>Home!N2</f>
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>-222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
         <v>123.0</v>
       </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-222.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-123.0</v>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1376.0</v>
       </c>
     </row>
   </sheetData>
@@ -1105,57 +1120,56 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="n">
-        <v>200.0</v>
+      <c r="I2">
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="4">
-        <f>Home!O2</f>
         <v>27300</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
-        <v>123.0</v>
+      <c r="I3">
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="n">
-        <v>123.0</v>
+      <c r="I4">
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-123.0</v>
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>-123</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,77 +1254,76 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="n">
-        <v>50000.0</v>
+      <c r="I2">
+        <v>50000</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N2" s="4">
-        <f>Home!P2</f>
         <v>315000111</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>123.0</v>
+      <c r="I3">
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
-        <v>123.0</v>
+      <c r="I4">
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-123.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
-        <v>123.0</v>
+      <c r="I5">
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-123.0</v>
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>-123</v>
       </c>
     </row>
   </sheetData>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>16:48:53</t>
+  </si>
+  <si>
+    <t>16:48:58</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -826,6 +832,46 @@
         <v>1376.0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1376.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.14999988E8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,7 +879,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1036,6 +1082,26 @@
         <v>36</v>
       </c>
       <c r="K8" t="n">
+        <v>1376.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="n">
         <v>1376.0</v>
       </c>
     </row>
@@ -1179,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1326,6 +1392,26 @@
         <v>-123</v>
       </c>
     </row>
+    <row r="6">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.14999988E8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>16:50:56</t>
+  </si>
+  <si>
+    <t>new test</t>
+  </si>
+  <si>
+    <t>16:51:03</t>
+  </si>
+  <si>
+    <t>newtest</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -826,6 +838,46 @@
         <v>1376.0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-8500.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12312.0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.14987799E8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,7 +885,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1037,6 +1089,26 @@
       </c>
       <c r="K8" t="n">
         <v>1376.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-8500.0</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1326,6 +1398,26 @@
         <v>-123</v>
       </c>
     </row>
+    <row r="6">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12312.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.14987799E8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science Lessons\BankManagementSystem using Excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DF9BA7-087B-418C-80B6-8D3C5C482FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E803F-1DE9-427A-BAD8-45C2894DD943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7620" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Checking" sheetId="2" r:id="rId2"/>
     <sheet name="Savings" sheetId="3" r:id="rId3"/>
     <sheet name="Business" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -99,58 +100,25 @@
     <t>Employee Bonus</t>
   </si>
   <si>
+    <t>BankAccount totals</t>
+  </si>
+  <si>
     <t>2021/10/01</t>
   </si>
   <si>
-    <t>15:42:58</t>
+    <t>18:59:55</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>15:43:03</t>
-  </si>
-  <si>
-    <t>15:43:08</t>
-  </si>
-  <si>
-    <t>15:54:57</t>
-  </si>
-  <si>
-    <t>15:55:01</t>
-  </si>
-  <si>
-    <t>15:59:15</t>
-  </si>
-  <si>
-    <t>16:01:45</t>
-  </si>
-  <si>
-    <t>16:02:12</t>
-  </si>
-  <si>
-    <t>16:02:17</t>
-  </si>
-  <si>
-    <t>16:02:21</t>
-  </si>
-  <si>
-    <t>16:32:37</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>16:50:56</t>
-  </si>
-  <si>
-    <t>new test</t>
-  </si>
-  <si>
-    <t>16:51:03</t>
-  </si>
-  <si>
-    <t>newtest</t>
+    <t>19:00:06</t>
+  </si>
+  <si>
+    <t>19:00:13</t>
+  </si>
+  <si>
+    <t>19:00:21</t>
   </si>
 </sst>
 </file>
@@ -495,20 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,16 +554,19 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(N2:P2)</f>
-        <v>315028910</v>
+        <v>300000</v>
       </c>
       <c r="N2" s="4">
-        <v>1499</v>
+        <f>Data!A3</f>
+        <v>100000</v>
       </c>
       <c r="O2" s="4">
-        <v>27300</v>
+        <f>Data!A6</f>
+        <v>100000</v>
       </c>
       <c r="P2" s="4">
-        <v>315000111</v>
+        <f>Data!A9</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,257 +597,31 @@
         <v>123000456</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>123</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>222</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>-222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9">
-        <v>123</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>123</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12">
-        <v>123</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>123</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>123</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1376.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9999.0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-8500.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12312.0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.14987799E8</v>
-      </c>
-    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -885,18 +629,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,144 +715,59 @@
         <v>20</v>
       </c>
       <c r="N2" s="4">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+        <f>Data!A3</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I14">
+        <v>10.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>99989.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>222</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>-222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>123</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1376.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9999.0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-8500.0</v>
+      <c r="I15">
+        <v>12.3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>99977.2</v>
       </c>
     </row>
   </sheetData>
@@ -1118,18 +777,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4096E47-5665-49FE-8D03-5A6658E6030D}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,44 +863,32 @@
         <v>18</v>
       </c>
       <c r="N2" s="4">
-        <v>27300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+        <f>Data!A6</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>123</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>-123</v>
+      <c r="K7">
+        <v>99900</v>
       </c>
     </row>
   </sheetData>
@@ -1251,18 +898,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09C839D-D397-4547-898D-3BD232822816}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,84 +985,87 @@
         <v>22</v>
       </c>
       <c r="N2" s="4">
-        <v>315000111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+        <f>Data!A9</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>99900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5288DD5-F318-40A1-98F7-63E90A9E93C5}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99977.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="I3">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>123</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>-123</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12312.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.14987799E8</v>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99900</v>
       </c>
     </row>
   </sheetData>

--- a/data/Routing.xlsx
+++ b/data/Routing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science Lessons\BankManagementSystem using Excel\data\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>19:00:21</t>
+  </si>
+  <si>
+    <t>20:05:14</t>
+  </si>
+  <si>
+    <t>rich peoiple store</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -471,11 +477,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="16" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -622,6 +628,26 @@
     <row r="27" ht="15" x14ac:dyDescent="0.25"/>
     <row r="28" ht="15" x14ac:dyDescent="0.25"/>
     <row r="29" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="30">
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="n">
+        <v>89978.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -629,7 +655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE80214-2342-4F0E-B6E2-2B95AADA1513}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
@@ -637,10 +663,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,6 +794,26 @@
       </c>
       <c r="K15">
         <v>99977.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="n">
+        <v>89978.2</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +831,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,10 +952,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="1.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,7 +1076,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1043,9 +1089,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>99977.2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>89978.2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
